--- a/2_structured_data/1_Data_modeling/Lesson3_ER_student_example_done.xlsx
+++ b/2_structured_data/1_Data_modeling/Lesson3_ER_student_example_done.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baroncis\Documents\GitHub\DAH_WiSe2025-26\2_structured_data\1_Data_modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FE9EA4-9EAE-4F35-8DD9-BD74522F6540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DB4EB8-AAB7-4D1D-B358-8B5A6A9F9BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -178,22 +178,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF356854"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF356854"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF356854"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF356854"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -298,25 +282,41 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF356854"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF356854"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF356854"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF356854"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="3">
     <tableStyle name="Student-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
     <tableStyle name="Course-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
     <tableStyle name="Attendance-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="0"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -568,7 +568,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -728,9 +728,9 @@
   </sheetPr>
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/2_structured_data/1_Data_modeling/Lesson3_ER_student_example_done.xlsx
+++ b/2_structured_data/1_Data_modeling/Lesson3_ER_student_example_done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baroncis\Documents\GitHub\DAH_WiSe2025-26\2_structured_data\1_Data_modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DB4EB8-AAB7-4D1D-B358-8B5A6A9F9BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A984FDC3-2C9C-4AEA-864B-8417E16CD5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Student_ID</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Attendance_ID</t>
+  </si>
+  <si>
+    <t>CH01</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -631,7 +634,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -654,7 +661,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -730,7 +737,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -753,7 +760,7 @@
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("JOIN(""_"",B2,C2)"),"MA01_DAH01")</f>
+        <f>B2&amp;"_"&amp;C2</f>
         <v>MA01_DAH01</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -764,8 +771,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("JOIN(""_"",B3,C3)"),"MA01_MAH01")</f>
+      <c r="A3" s="5" t="str">
+        <f t="shared" ref="A3:A5" si="0">B3&amp;"_"&amp;C3</f>
         <v>MA01_MAH01</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -776,8 +783,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("JOIN(""_"",B4,C4)"),"BS01_MAH01")</f>
+      <c r="A4" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>BS01_MAH01</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -788,8 +795,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("JOIN(""_"",B5,C5)"),"BS01_CAH01")</f>
+      <c r="A5" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>BS01_CAH01</v>
       </c>
       <c r="B5" s="4" t="s">
